--- a/data/supplementary_tables/xv20220913_Table_S8_BioGRID_interaction_CCD.xlsx
+++ b/data/supplementary_tables/xv20220913_Table_S8_BioGRID_interaction_CCD.xlsx
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="4">
@@ -2879,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="11">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="12">
@@ -3334,7 +3334,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="24">
@@ -3684,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="n">
-        <v>0.585170041842406</v>
+        <v>0.578644775674307</v>
       </c>
     </row>
     <row r="34">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="K34" t="n">
-        <v>0.585170041842406</v>
+        <v>0.578644775674307</v>
       </c>
     </row>
     <row r="35">
@@ -3999,7 +3999,7 @@
         <v>19</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="43">
@@ -4454,7 +4454,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="n">
-        <v>0.010887757539923</v>
+        <v>0.0107663475037939</v>
       </c>
     </row>
     <row r="56">
@@ -4769,7 +4769,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="65">
@@ -4909,7 +4909,7 @@
         <v>19</v>
       </c>
       <c r="K68" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="69">
@@ -4979,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="71">
@@ -5049,7 +5049,7 @@
         <v>19</v>
       </c>
       <c r="K72" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="73">
@@ -5119,7 +5119,7 @@
         <v>19</v>
       </c>
       <c r="K74" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="75">
@@ -5154,7 +5154,7 @@
         <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="76">
@@ -5224,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="K77" t="n">
-        <v>0.781341912504292</v>
+        <v>0.78107994747385</v>
       </c>
     </row>
     <row r="78">
@@ -5434,7 +5434,7 @@
         <v>19</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0863959250543974</v>
+        <v>0.0854325189219781</v>
       </c>
     </row>
     <row r="84">
@@ -5469,7 +5469,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0863959250543974</v>
+        <v>0.0854325189219781</v>
       </c>
     </row>
     <row r="85">
@@ -5504,7 +5504,7 @@
         <v>19</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0863959250543974</v>
+        <v>0.0854325189219781</v>
       </c>
     </row>
     <row r="86">
@@ -5609,7 +5609,7 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="89">
@@ -5644,7 +5644,7 @@
         <v>19</v>
       </c>
       <c r="K89" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="90">
@@ -5994,7 +5994,7 @@
         <v>19</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.212467457813813</v>
+        <v>-0.211429636163772</v>
       </c>
     </row>
     <row r="100">
@@ -6029,7 +6029,7 @@
         <v>19</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="101">
@@ -6064,7 +6064,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.212467457813813</v>
+        <v>-0.211429636163772</v>
       </c>
     </row>
     <row r="102">
@@ -6134,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="104">
@@ -6694,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="K119" t="n">
-        <v>0.854829555114914</v>
+        <v>0.852104582481416</v>
       </c>
     </row>
     <row r="120">
@@ -7044,7 +7044,7 @@
         <v>19</v>
       </c>
       <c r="K129" t="n">
-        <v>0.876168774323292</v>
+        <v>0.87614532051588</v>
       </c>
     </row>
     <row r="130">
@@ -7079,7 +7079,7 @@
         <v>19</v>
       </c>
       <c r="K130" t="n">
-        <v>0.876168774323292</v>
+        <v>0.87614532051588</v>
       </c>
     </row>
     <row r="131">
@@ -7219,7 +7219,7 @@
         <v>19</v>
       </c>
       <c r="K134" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="135">
@@ -7254,7 +7254,7 @@
         <v>19</v>
       </c>
       <c r="K135" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="136">
@@ -7289,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="K136" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="137">
@@ -7359,7 +7359,7 @@
         <v>19</v>
       </c>
       <c r="K138" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="139">
@@ -7394,7 +7394,7 @@
         <v>19</v>
       </c>
       <c r="K139" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="140">
@@ -7464,7 +7464,7 @@
         <v>19</v>
       </c>
       <c r="K141" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="142">
@@ -7499,7 +7499,7 @@
         <v>19</v>
       </c>
       <c r="K142" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="143">
@@ -7569,7 +7569,7 @@
         <v>19</v>
       </c>
       <c r="K144" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="145">
@@ -7604,7 +7604,7 @@
         <v>19</v>
       </c>
       <c r="K145" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="146">
@@ -7639,7 +7639,7 @@
         <v>19</v>
       </c>
       <c r="K146" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="147">
@@ -7709,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="K148" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="149">
@@ -7744,7 +7744,7 @@
         <v>19</v>
       </c>
       <c r="K149" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="150">
@@ -7814,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="K151" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="152">
@@ -7884,7 +7884,7 @@
         <v>19</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.112003920971775</v>
+        <v>-0.097260107019333</v>
       </c>
     </row>
     <row r="154">
@@ -7919,7 +7919,7 @@
         <v>19</v>
       </c>
       <c r="K154" t="n">
-        <v>0.585170041842406</v>
+        <v>0.578644775674307</v>
       </c>
     </row>
     <row r="155">
@@ -8199,7 +8199,7 @@
         <v>19</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0863959250543974</v>
+        <v>0.0854325189219781</v>
       </c>
     </row>
     <row r="163">
@@ -8339,7 +8339,7 @@
         <v>19</v>
       </c>
       <c r="K166" t="n">
-        <v>0.949712945092469</v>
+        <v>0.949394529330316</v>
       </c>
     </row>
     <row r="167">
@@ -8899,7 +8899,7 @@
         <v>19</v>
       </c>
       <c r="K182" t="n">
-        <v>0.959763851512384</v>
+        <v>0.959442065924596</v>
       </c>
     </row>
     <row r="183">
@@ -8969,7 +8969,7 @@
         <v>19</v>
       </c>
       <c r="K184" t="n">
-        <v>0.738360812663191</v>
+        <v>0.72131350863248</v>
       </c>
     </row>
     <row r="185">
@@ -9004,7 +9004,7 @@
         <v>19</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.00698572745639293</v>
+        <v>-0.00660764730764467</v>
       </c>
     </row>
     <row r="186">
@@ -9074,7 +9074,7 @@
         <v>19</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.00698572745639293</v>
+        <v>-0.00660764730764467</v>
       </c>
     </row>
     <row r="188">
@@ -9284,7 +9284,7 @@
         <v>19</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="194">
@@ -9319,7 +9319,7 @@
         <v>19</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="195">
@@ -9459,7 +9459,7 @@
         <v>19</v>
       </c>
       <c r="K198" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="199">
@@ -10509,7 +10509,7 @@
         <v>19</v>
       </c>
       <c r="K228" t="n">
-        <v>0.323629207301252</v>
+        <v>0.322891153558877</v>
       </c>
     </row>
     <row r="229">
@@ -10544,7 +10544,7 @@
         <v>19</v>
       </c>
       <c r="K229" t="n">
-        <v>0.323629207301252</v>
+        <v>0.322891153558877</v>
       </c>
     </row>
     <row r="230">
@@ -10614,7 +10614,7 @@
         <v>19</v>
       </c>
       <c r="K231" t="n">
-        <v>0.56182367243676</v>
+        <v>0.56163530655865</v>
       </c>
     </row>
     <row r="232">
@@ -10719,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="K234" t="n">
-        <v>-0.71092541802483</v>
+        <v>-0.702997846128508</v>
       </c>
     </row>
     <row r="235">
@@ -10754,7 +10754,7 @@
         <v>19</v>
       </c>
       <c r="K235" t="n">
-        <v>-0.71092541802483</v>
+        <v>-0.702997846128508</v>
       </c>
     </row>
     <row r="236">
@@ -10789,7 +10789,7 @@
         <v>19</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="237">
@@ -10824,7 +10824,7 @@
         <v>19</v>
       </c>
       <c r="K237" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="238">
@@ -11034,7 +11034,7 @@
         <v>19</v>
       </c>
       <c r="K243" t="n">
-        <v>0.958911074774415</v>
+        <v>0.958589575102025</v>
       </c>
     </row>
     <row r="244">
@@ -11069,7 +11069,7 @@
         <v>19</v>
       </c>
       <c r="K244" t="n">
-        <v>0.188840610407142</v>
+        <v>0.188777296721466</v>
       </c>
     </row>
     <row r="245">
@@ -11489,7 +11489,7 @@
         <v>19</v>
       </c>
       <c r="K256" t="n">
-        <v>0.0486002613960884</v>
+        <v>0.0484894258967128</v>
       </c>
     </row>
     <row r="257">
@@ -11769,7 +11769,7 @@
         <v>19</v>
       </c>
       <c r="K264" t="n">
-        <v>0.0147566368095472</v>
+        <v>0.0145920846690701</v>
       </c>
     </row>
     <row r="265">
@@ -12154,7 +12154,7 @@
         <v>19</v>
       </c>
       <c r="K275" t="n">
-        <v>0.0912446944999968</v>
+        <v>0.0902272194492154</v>
       </c>
     </row>
     <row r="276">
@@ -12529,7 +12529,7 @@
         <v>19</v>
       </c>
       <c r="K286" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="287">
@@ -13019,7 +13019,7 @@
         <v>19</v>
       </c>
       <c r="K300" t="n">
-        <v>-0.607853426516958</v>
+        <v>-0.574955304546231</v>
       </c>
     </row>
     <row r="301">
@@ -13089,7 +13089,7 @@
         <v>19</v>
       </c>
       <c r="K302" t="n">
-        <v>0.0801003573620305</v>
+        <v>0.0800735016510812</v>
       </c>
     </row>
     <row r="303">
@@ -13229,7 +13229,7 @@
         <v>19</v>
       </c>
       <c r="K306" t="n">
-        <v>-0.603403607888841</v>
+        <v>-0.59994186027172</v>
       </c>
     </row>
     <row r="307">
@@ -13299,7 +13299,7 @@
         <v>19</v>
       </c>
       <c r="K308" t="n">
-        <v>0.507657612564242</v>
+        <v>0.495936793262263</v>
       </c>
     </row>
     <row r="309">
@@ -13369,7 +13369,7 @@
         <v>19</v>
       </c>
       <c r="K310" t="n">
-        <v>0.1505340392055</v>
+        <v>0.149770560031837</v>
       </c>
     </row>
     <row r="311">
@@ -13404,7 +13404,7 @@
         <v>19</v>
       </c>
       <c r="K311" t="n">
-        <v>-0.0286885136055092</v>
+        <v>-0.0493737939892776</v>
       </c>
     </row>
     <row r="312">
@@ -13579,7 +13579,7 @@
         <v>19</v>
       </c>
       <c r="K316" t="n">
-        <v>-0.840146691563301</v>
+        <v>-0.843821265595326</v>
       </c>
     </row>
     <row r="317">
@@ -13754,7 +13754,7 @@
         <v>19</v>
       </c>
       <c r="K321" t="n">
-        <v>0.0315422101006186</v>
+        <v>0.0311904810274955</v>
       </c>
     </row>
     <row r="322">
@@ -13789,7 +13789,7 @@
         <v>19</v>
       </c>
       <c r="K322" t="n">
-        <v>0.0900615257532456</v>
+        <v>0.0898561356196403</v>
       </c>
     </row>
     <row r="323">
@@ -13929,7 +13929,7 @@
         <v>19</v>
       </c>
       <c r="K326" t="n">
-        <v>-0.162502949342465</v>
+        <v>-0.161709185060827</v>
       </c>
     </row>
     <row r="327">
@@ -13999,7 +13999,7 @@
         <v>19</v>
       </c>
       <c r="K328" t="n">
-        <v>0.835498695129918</v>
+        <v>0.835218572641157</v>
       </c>
     </row>
     <row r="329">
@@ -14349,7 +14349,7 @@
         <v>19</v>
       </c>
       <c r="K338" t="n">
-        <v>-0.452928277802242</v>
+        <v>-0.428414983844996</v>
       </c>
     </row>
     <row r="339">
@@ -14489,7 +14489,7 @@
         <v>19</v>
       </c>
       <c r="K342" t="n">
-        <v>-0.452928277802242</v>
+        <v>-0.428414983844996</v>
       </c>
     </row>
     <row r="343">
@@ -14699,7 +14699,7 @@
         <v>19</v>
       </c>
       <c r="K348" t="n">
-        <v>-0.452928277802242</v>
+        <v>-0.428414983844996</v>
       </c>
     </row>
     <row r="349">
@@ -14734,7 +14734,7 @@
         <v>19</v>
       </c>
       <c r="K349" t="n">
-        <v>-0.452928277802242</v>
+        <v>-0.428414983844996</v>
       </c>
     </row>
     <row r="350">
@@ -14839,7 +14839,7 @@
         <v>19</v>
       </c>
       <c r="K352" t="n">
-        <v>0.585170041842406</v>
+        <v>0.578644775674307</v>
       </c>
     </row>
     <row r="353">
@@ -15154,7 +15154,7 @@
         <v>19</v>
       </c>
       <c r="K361" t="n">
-        <v>-0.0386478657731502</v>
+        <v>-0.0365561736864594</v>
       </c>
     </row>
     <row r="362">
@@ -15189,7 +15189,7 @@
         <v>19</v>
       </c>
       <c r="K362" t="n">
-        <v>-0.678432085644244</v>
+        <v>-0.641714119554509</v>
       </c>
     </row>
     <row r="363">
@@ -15224,7 +15224,7 @@
         <v>19</v>
       </c>
       <c r="K363" t="n">
-        <v>-0.585049159624727</v>
+        <v>-0.553385245640574</v>
       </c>
     </row>
     <row r="364">
@@ -15259,7 +15259,7 @@
         <v>19</v>
       </c>
       <c r="K364" t="n">
-        <v>-0.678432085644244</v>
+        <v>-0.641714119554509</v>
       </c>
     </row>
     <row r="365">
@@ -15329,7 +15329,7 @@
         <v>19</v>
       </c>
       <c r="K366" t="n">
-        <v>-0.123110692593552</v>
+        <v>-0.116447720231858</v>
       </c>
     </row>
     <row r="367">
@@ -15364,7 +15364,7 @@
         <v>19</v>
       </c>
       <c r="K367" t="n">
-        <v>-0.00698572745639293</v>
+        <v>-0.00660764730764467</v>
       </c>
     </row>
     <row r="368">
@@ -15504,7 +15504,7 @@
         <v>19</v>
       </c>
       <c r="K371" t="n">
-        <v>-0.582526296483946</v>
+        <v>-0.576030510878609</v>
       </c>
     </row>
     <row r="372">
@@ -15574,7 +15574,7 @@
         <v>19</v>
       </c>
       <c r="K373" t="n">
-        <v>-0.840146691563301</v>
+        <v>-0.843821265595326</v>
       </c>
     </row>
     <row r="374">
@@ -15609,7 +15609,7 @@
         <v>19</v>
       </c>
       <c r="K374" t="n">
-        <v>0.486993060933658</v>
+        <v>0.481562572157089</v>
       </c>
     </row>
     <row r="375">
@@ -15644,7 +15644,7 @@
         <v>19</v>
       </c>
       <c r="K375" t="n">
-        <v>0.125648012234664</v>
+        <v>0.12424690372825</v>
       </c>
     </row>
     <row r="376">
@@ -15679,7 +15679,7 @@
         <v>19</v>
       </c>
       <c r="K376" t="n">
-        <v>0.585170041842406</v>
+        <v>0.578644775674307</v>
       </c>
     </row>
     <row r="377">
@@ -15714,7 +15714,7 @@
         <v>19</v>
       </c>
       <c r="K377" t="n">
-        <v>0.348347415131116</v>
+        <v>0.344462972250986</v>
       </c>
     </row>
     <row r="378">
@@ -15749,7 +15749,7 @@
         <v>19</v>
       </c>
       <c r="K378" t="n">
-        <v>0.0863959250543974</v>
+        <v>0.0854325189219781</v>
       </c>
     </row>
     <row r="379">
@@ -15819,7 +15819,7 @@
         <v>19</v>
       </c>
       <c r="K380" t="n">
-        <v>0.0118402230816777</v>
+        <v>0.0117081920452727</v>
       </c>
     </row>
     <row r="381">
@@ -15854,7 +15854,7 @@
         <v>19</v>
       </c>
       <c r="K381" t="n">
-        <v>0.415443216612533</v>
+        <v>0.410810584433359</v>
       </c>
     </row>
     <row r="382">
@@ -15924,7 +15924,7 @@
         <v>19</v>
       </c>
       <c r="K383" t="n">
-        <v>0.038341302511041</v>
+        <v>0.036259716826981</v>
       </c>
     </row>
   </sheetData>
